--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Definición de los conceptos básicos en el Marco Teórico</t>
   </si>
 </sst>
 </file>
@@ -145,19 +148,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -446,7 +453,7 @@
   <dimension ref="A3:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,13 +463,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
@@ -473,442 +480,544 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="6">
+        <v>43877</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
@@ -921,98 +1030,6 @@
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Definición de los conceptos básicos en el Marco Teórico</t>
+  </si>
+  <si>
+    <t>Conceptos básicos en el Marco Teórico</t>
   </si>
 </sst>
 </file>
@@ -154,6 +157,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -163,7 +167,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,7 +456,7 @@
   <dimension ref="A3:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="N6" sqref="N6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,486 +469,545 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>43877</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="7">
         <v>0.4375</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="A5" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="7">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
@@ -958,78 +1020,29 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -44,7 +44,10 @@
     <t>Definición de los conceptos básicos en el Marco Teórico</t>
   </si>
   <si>
-    <t>Conceptos básicos en el Marco Teórico</t>
+    <t>Definir y estructurar los conceptos del Marco Teórico</t>
+  </si>
+  <si>
+    <t>Evaluar los Conceptos básicos existentes en el Marco Teórico</t>
   </si>
 </sst>
 </file>
@@ -161,13 +164,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +459,7 @@
   <dimension ref="A3:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:O6"/>
+      <selection activeCell="N7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,24 +476,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -510,7 +513,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>0.4375</v>
       </c>
       <c r="M4" s="4"/>
@@ -528,7 +531,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -537,7 +540,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>0.52083333333333337</v>
       </c>
       <c r="M5" s="4"/>
@@ -547,10 +550,16 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -558,9 +567,13 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -939,6 +952,98 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
@@ -951,98 +1056,6 @@
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Evaluar los Conceptos básicos existentes en el Marco Teórico</t>
+  </si>
+  <si>
+    <t>Construir dos rutas en la aplicación movil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificacion de diapositivas para la presentacion </t>
+  </si>
+  <si>
+    <t>Creacion de base de datos para aplicarlo en la aplicación móvil</t>
   </si>
 </sst>
 </file>
@@ -164,13 +173,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +468,7 @@
   <dimension ref="A3:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:O7"/>
+      <selection activeCell="L10" sqref="L10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,24 +485,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="7"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -513,7 +522,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="5">
+      <c r="L4" s="7">
         <v>0.4375</v>
       </c>
       <c r="M4" s="4"/>
@@ -540,7 +549,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <v>0.52083333333333337</v>
       </c>
       <c r="M5" s="4"/>
@@ -567,7 +576,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>0.22916666666666666</v>
       </c>
       <c r="M6" s="4"/>
@@ -577,10 +586,16 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -594,10 +609,16 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3">
+        <v>43884</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -611,10 +632,16 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3">
+        <v>43890</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -622,16 +649,26 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="7">
+        <v>0.75</v>
+      </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -952,6 +989,98 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="L3:M3"/>
@@ -964,98 +1093,6 @@
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -57,6 +57,24 @@
   </si>
   <si>
     <t>Creacion de base de datos para aplicarlo en la aplicación móvil</t>
+  </si>
+  <si>
+    <t>Agregar informacionde Base de Datos</t>
+  </si>
+  <si>
+    <t>Crear interfaces de la aplicación movil</t>
+  </si>
+  <si>
+    <t>Estructurar documentacion - Marco Teorico</t>
+  </si>
+  <si>
+    <t>Implementar las interfaces diseñadas</t>
+  </si>
+  <si>
+    <t>Introducir más información a la base de datos</t>
+  </si>
+  <si>
+    <t>Modificar informacion de la documentacion</t>
   </si>
 </sst>
 </file>
@@ -173,13 +191,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,7 +486,7 @@
   <dimension ref="A3:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:M10"/>
+      <selection activeCell="N20" sqref="N20:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,24 +503,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -522,7 +540,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>0.4375</v>
       </c>
       <c r="M4" s="4"/>
@@ -549,7 +567,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>0.52083333333333337</v>
       </c>
       <c r="M5" s="4"/>
@@ -576,7 +594,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>0.22916666666666666</v>
       </c>
       <c r="M6" s="4"/>
@@ -649,7 +667,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>0.75</v>
       </c>
       <c r="M9" s="4"/>
@@ -682,10 +700,16 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -699,10 +723,16 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3">
+        <v>43912</v>
+      </c>
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -716,10 +746,16 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="3">
+        <v>43914</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -727,16 +763,26 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>8</v>
+      </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3">
+        <v>43916</v>
+      </c>
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -750,10 +796,16 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3">
+        <v>43917</v>
+      </c>
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -767,10 +819,16 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3">
+        <v>43918</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -784,10 +842,16 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3">
+        <v>43920</v>
+      </c>
+      <c r="B17" s="4">
+        <v>14</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -801,10 +865,16 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3">
+        <v>43923</v>
+      </c>
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -812,16 +882,26 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="5">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4">
+        <v>8</v>
+      </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3">
+        <v>43924</v>
+      </c>
+      <c r="B19" s="4">
+        <v>16</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -829,9 +909,13 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="5">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4">
+        <v>8</v>
+      </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -989,6 +1073,98 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
@@ -1001,98 +1177,6 @@
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -71,17 +71,26 @@
     <t>Implementar las interfaces diseñadas</t>
   </si>
   <si>
-    <t>Introducir más información a la base de datos</t>
-  </si>
-  <si>
-    <t>Modificar informacion de la documentacion</t>
+    <t>Agregar información en Marco Teórico</t>
+  </si>
+  <si>
+    <t>Agregar información Marco Teórico</t>
+  </si>
+  <si>
+    <t>Introducir más información a la base de datos (sitio web)</t>
+  </si>
+  <si>
+    <t>Modificar información Introducción</t>
+  </si>
+  <si>
+    <t>Modificar estructura de la documentación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +120,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +149,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -175,13 +196,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -191,19 +213,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Énfasis2" xfId="3" builtinId="34"/>
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Salida" xfId="2" builtinId="21"/>
   </cellStyles>
@@ -486,7 +512,7 @@
   <dimension ref="A3:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20:O20"/>
+      <selection activeCell="L12" sqref="L12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,24 +529,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="7"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -540,7 +566,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="5">
+      <c r="L4" s="7">
         <v>0.4375</v>
       </c>
       <c r="M4" s="4"/>
@@ -567,7 +593,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <v>0.52083333333333337</v>
       </c>
       <c r="M5" s="4"/>
@@ -594,7 +620,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>0.22916666666666666</v>
       </c>
       <c r="M6" s="4"/>
@@ -621,8 +647,8 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
@@ -644,8 +670,8 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
@@ -667,7 +693,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5">
+      <c r="L9" s="7">
         <v>0.75</v>
       </c>
       <c r="M9" s="4"/>
@@ -694,8 +720,8 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
@@ -717,8 +743,8 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
@@ -740,8 +766,8 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
@@ -763,7 +789,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="5">
+      <c r="L13" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="M13" s="4"/>
@@ -790,8 +816,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
@@ -813,8 +839,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
@@ -836,8 +862,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
@@ -850,7 +876,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -859,8 +885,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
@@ -873,7 +899,7 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -882,7 +908,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="5">
+      <c r="L18" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="M18" s="4"/>
@@ -900,7 +926,7 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -909,7 +935,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="5">
+      <c r="L19" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="M19" s="4"/>
@@ -919,10 +945,16 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="3">
+        <v>43931</v>
+      </c>
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -930,16 +962,26 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="7">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <v>8</v>
+      </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="3">
+        <v>43936</v>
+      </c>
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -947,9 +989,13 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="7">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4">
+        <v>8</v>
+      </c>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1073,6 +1119,98 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="L3:M3"/>
@@ -1085,98 +1223,6 @@
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Modificar estructura de la documentación</t>
+  </si>
+  <si>
+    <t>Para indicar que la actividad es práctica</t>
+  </si>
+  <si>
+    <t>por lo que en general sobrepaso 8 hrs</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -213,18 +219,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Énfasis2" xfId="3" builtinId="34"/>
@@ -509,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O28"/>
+  <dimension ref="A3:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:M12"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +528,7 @@
     <col min="3" max="3" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -529,26 +536,30 @@
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43877</v>
       </c>
@@ -566,7 +577,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>0.4375</v>
       </c>
       <c r="M4" s="4"/>
@@ -574,8 +585,11 @@
         <v>1</v>
       </c>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43879</v>
       </c>
@@ -593,7 +607,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>0.52083333333333337</v>
       </c>
       <c r="M5" s="4"/>
@@ -602,7 +616,7 @@
       </c>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43879</v>
       </c>
@@ -620,7 +634,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>0.22916666666666666</v>
       </c>
       <c r="M6" s="4"/>
@@ -629,7 +643,7 @@
       </c>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43883</v>
       </c>
@@ -647,12 +661,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43884</v>
       </c>
@@ -670,12 +684,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43890</v>
       </c>
@@ -693,7 +707,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>0.75</v>
       </c>
       <c r="M9" s="4"/>
@@ -702,7 +716,7 @@
       </c>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43862</v>
       </c>
@@ -720,12 +734,12 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43911</v>
       </c>
@@ -743,12 +757,12 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43912</v>
       </c>
@@ -766,12 +780,12 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43914</v>
       </c>
@@ -789,7 +803,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="M13" s="4"/>
@@ -798,7 +812,7 @@
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43916</v>
       </c>
@@ -816,12 +830,12 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43917</v>
       </c>
@@ -839,12 +853,12 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43918</v>
       </c>
@@ -862,8 +876,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
@@ -885,8 +899,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
@@ -908,7 +922,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="M18" s="4"/>
@@ -935,7 +949,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="M19" s="4"/>
@@ -962,7 +976,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="M20" s="4"/>
@@ -989,7 +1003,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="M21" s="4"/>
@@ -1119,6 +1133,98 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
@@ -1131,98 +1237,6 @@
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -90,6 +90,27 @@
   </si>
   <si>
     <t>por lo que en general sobrepaso 8 hrs</t>
+  </si>
+  <si>
+    <t>Implementar escrito para busqueda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejorar diseño para implentar escrito para busqueda </t>
+  </si>
+  <si>
+    <t>Modificar información Marco Teórico</t>
+  </si>
+  <si>
+    <t>Investigación de cómo Implementar interactividad con rutas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar interactividad con rutas </t>
+  </si>
+  <si>
+    <t>Agregar informacion en Capitulo IV Desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar gráficas Introducción </t>
   </si>
 </sst>
 </file>
@@ -163,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -201,6 +222,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -209,20 +256,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
@@ -231,7 +272,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Énfasis2" xfId="3" builtinId="34"/>
@@ -516,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R28"/>
+  <dimension ref="A3:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="N34" sqref="N34:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,38 +581,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="3"/>
       <c r="R3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43877</v>
       </c>
       <c r="B4" s="4">
@@ -577,7 +629,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="6">
+      <c r="L4" s="7">
         <v>0.4375</v>
       </c>
       <c r="M4" s="4"/>
@@ -590,7 +642,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43879</v>
       </c>
       <c r="B5" s="4">
@@ -607,7 +659,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="6">
+      <c r="L5" s="7">
         <v>0.52083333333333337</v>
       </c>
       <c r="M5" s="4"/>
@@ -617,7 +669,7 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>43879</v>
       </c>
       <c r="B6" s="4">
@@ -634,7 +686,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="6">
+      <c r="L6" s="7">
         <v>0.22916666666666666</v>
       </c>
       <c r="M6" s="4"/>
@@ -644,7 +696,7 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>43883</v>
       </c>
       <c r="B7" s="4">
@@ -661,13 +713,13 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>43884</v>
       </c>
       <c r="B8" s="4">
@@ -684,13 +736,13 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>43890</v>
       </c>
       <c r="B9" s="4">
@@ -707,7 +759,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="6">
+      <c r="L9" s="7">
         <v>0.75</v>
       </c>
       <c r="M9" s="4"/>
@@ -717,7 +769,7 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>43862</v>
       </c>
       <c r="B10" s="4">
@@ -734,13 +786,13 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>43911</v>
       </c>
       <c r="B11" s="4">
@@ -757,13 +809,13 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43912</v>
       </c>
       <c r="B12" s="4">
@@ -780,13 +832,13 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>43914</v>
       </c>
       <c r="B13" s="4">
@@ -803,7 +855,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="M13" s="4"/>
@@ -813,7 +865,7 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>43916</v>
       </c>
       <c r="B14" s="4">
@@ -830,13 +882,13 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>43917</v>
       </c>
       <c r="B15" s="4">
@@ -853,13 +905,13 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>43918</v>
       </c>
       <c r="B16" s="4">
@@ -876,13 +928,13 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>43920</v>
       </c>
       <c r="B17" s="4">
@@ -899,13 +951,13 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>43923</v>
       </c>
       <c r="B18" s="4">
@@ -922,7 +974,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="6">
+      <c r="L18" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="M18" s="4"/>
@@ -932,7 +984,7 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>43924</v>
       </c>
       <c r="B19" s="4">
@@ -949,7 +1001,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="6">
+      <c r="L19" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="M19" s="4"/>
@@ -959,7 +1011,7 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>43931</v>
       </c>
       <c r="B20" s="4">
@@ -976,7 +1028,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="6">
+      <c r="L20" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="M20" s="4"/>
@@ -986,7 +1038,7 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>43936</v>
       </c>
       <c r="B21" s="4">
@@ -1003,7 +1055,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="6">
+      <c r="L21" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="M21" s="4"/>
@@ -1013,10 +1065,16 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1024,16 +1082,22 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1041,16 +1105,22 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B24" s="4">
+        <v>21</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1058,16 +1128,22 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B25" s="4">
+        <v>22</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1075,16 +1151,22 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B26" s="4">
+        <v>23</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1092,16 +1174,26 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="L26" s="7">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4">
+        <v>7</v>
+      </c>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B27" s="4">
+        <v>24</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1109,16 +1201,26 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="L27" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="4">
+        <v>7</v>
+      </c>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B28" s="4">
+        <v>25</v>
+      </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1126,13 +1228,340 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B29" s="4">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B30" s="4">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
+        <v>5</v>
+      </c>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B31" s="4">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4">
+        <v>5</v>
+      </c>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B32" s="4">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4">
+        <v>5</v>
+      </c>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B33" s="4">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
+        <v>5</v>
+      </c>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="140">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="L3:M3"/>
@@ -1145,98 +1574,6 @@
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -110,7 +110,10 @@
     <t>Agregar informacion en Capitulo IV Desarrollo</t>
   </si>
   <si>
-    <t xml:space="preserve">Modificar gráficas Introducción </t>
+    <t>Actualizar Presentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar Presentación y Modificar gráficas Introducción </t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,10 +281,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +580,7 @@
   <dimension ref="A3:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34:O34"/>
+      <selection activeCell="D34" sqref="D34:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1128,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1128,9 +1137,13 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="4"/>
+      <c r="L24" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="4">
+        <v>8</v>
+      </c>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1201,10 +1214,10 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="10">
+      <c r="L27" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M27" s="9"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="4">
         <v>7</v>
       </c>
@@ -1346,7 +1359,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t xml:space="preserve">Actualizar Presentación y Modificar gráficas Introducción </t>
+  </si>
+  <si>
+    <t>Modificar Base de datos en 000webhost del web servive</t>
+  </si>
+  <si>
+    <t>Investigación y obtención de datos para la fundamentacion de la App</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <dimension ref="A3:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:K34"/>
+      <selection activeCell="N36" sqref="N36:O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,10 +1384,16 @@
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B34" s="4">
+        <v>31</v>
+      </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1389,16 +1401,22 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B35" s="4">
+        <v>32</v>
+      </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1406,9 +1424,13 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="L35" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c r="N35" s="4">
+        <v>5</v>
+      </c>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Investigación de cómo Implementar interactividad con rutas</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementar interactividad con rutas </t>
-  </si>
-  <si>
     <t>Agregar informacion en Capitulo IV Desarrollo</t>
   </si>
   <si>
@@ -120,6 +117,15 @@
   </si>
   <si>
     <t>Investigación y obtención de datos para la fundamentacion de la App</t>
+  </si>
+  <si>
+    <t>Implementar interactividad con rutas (colores de rutas)</t>
+  </si>
+  <si>
+    <t>Implementar interactividad con rutas (colores de rutas - base de datos)</t>
+  </si>
+  <si>
+    <t>Implementar interactividad con rutas (mostrar cuadro de texto con informacion)</t>
   </si>
 </sst>
 </file>
@@ -275,10 +281,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -287,16 +293,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,7 +592,7 @@
   <dimension ref="A3:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36:O36"/>
+      <selection activeCell="L37" sqref="L37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,24 +609,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="12"/>
       <c r="Q3" s="3"/>
       <c r="R3" t="s">
         <v>20</v>
@@ -1134,7 +1140,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1143,10 +1149,10 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="9">
+      <c r="L24" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="4">
         <v>8</v>
       </c>
@@ -1220,10 +1226,10 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="11">
+      <c r="L27" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="4">
         <v>7</v>
       </c>
@@ -1238,7 +1244,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1261,7 +1267,7 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1284,7 +1290,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1311,7 +1317,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1338,7 +1344,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1365,7 +1371,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1392,7 +1398,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1408,14 +1414,14 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B35" s="4">
         <v>32</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1424,20 +1430,26 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="9">
+      <c r="L35" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M35" s="10"/>
+      <c r="M35" s="6"/>
       <c r="N35" s="4">
         <v>5</v>
       </c>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B36" s="4">
+        <v>33</v>
+      </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1445,8 +1457,8 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
@@ -1469,6 +1481,134 @@
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:K35"/>
     <mergeCell ref="L35:M35"/>
@@ -1481,134 +1621,6 @@
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Implementar interactividad con rutas (mostrar cuadro de texto con informacion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificacion de Referencias y semantica del texto </t>
   </si>
 </sst>
 </file>
@@ -281,10 +284,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -293,16 +296,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -592,7 +595,7 @@
   <dimension ref="A3:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37:M37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,24 +612,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="12"/>
+      <c r="O3" s="6"/>
       <c r="Q3" s="3"/>
       <c r="R3" t="s">
         <v>20</v>
@@ -1149,10 +1152,10 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="5">
+      <c r="L24" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="4">
         <v>8</v>
       </c>
@@ -1226,10 +1229,10 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="9">
+      <c r="L27" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M27" s="10"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="4">
         <v>7</v>
       </c>
@@ -1430,10 +1433,10 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="5">
+      <c r="L35" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M35" s="6"/>
+      <c r="M35" s="10"/>
       <c r="N35" s="4">
         <v>5</v>
       </c>
@@ -1463,10 +1466,16 @@
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B37" s="4">
+        <v>34</v>
+      </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1474,13 +1483,145 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="L37" s="7">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="N37" s="4">
+        <v>5</v>
+      </c>
       <c r="O37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="L3:M3"/>
@@ -1493,134 +1634,6 @@
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -129,13 +129,16 @@
   </si>
   <si>
     <t xml:space="preserve">Modificacion de Referencias y semantica del texto </t>
+  </si>
+  <si>
+    <t>Modificacion de Referencias e imágenes, tablas y gráficas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +175,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -274,7 +289,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,28 +299,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -592,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R37"/>
+  <dimension ref="A3:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,24 +636,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="12"/>
       <c r="Q3" s="3"/>
       <c r="R3" t="s">
         <v>20</v>
@@ -653,7 +677,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>0.4375</v>
       </c>
       <c r="M4" s="4"/>
@@ -683,7 +707,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>0.52083333333333337</v>
       </c>
       <c r="M5" s="4"/>
@@ -710,7 +734,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="7">
+      <c r="L6" s="8">
         <v>0.22916666666666666</v>
       </c>
       <c r="M6" s="4"/>
@@ -737,8 +761,8 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
@@ -760,8 +784,8 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
@@ -783,7 +807,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="7">
+      <c r="L9" s="8">
         <v>0.75</v>
       </c>
       <c r="M9" s="4"/>
@@ -810,8 +834,8 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
@@ -833,8 +857,8 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
@@ -856,8 +880,8 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
@@ -879,7 +903,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="7">
+      <c r="L13" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M13" s="4"/>
@@ -906,8 +930,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
@@ -929,8 +953,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
@@ -952,8 +976,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
@@ -975,8 +999,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
@@ -998,7 +1022,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="7">
+      <c r="L18" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M18" s="4"/>
@@ -1025,7 +1049,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="7">
+      <c r="L19" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M19" s="4"/>
@@ -1052,7 +1076,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="7">
+      <c r="L20" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M20" s="4"/>
@@ -1079,7 +1103,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="7">
+      <c r="L21" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M21" s="4"/>
@@ -1106,8 +1130,8 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
@@ -1129,8 +1153,8 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
@@ -1152,10 +1176,10 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="9">
+      <c r="L24" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="4">
         <v>8</v>
       </c>
@@ -1179,8 +1203,8 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
@@ -1202,7 +1226,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="7">
+      <c r="L26" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M26" s="4"/>
@@ -1229,10 +1253,10 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="11">
+      <c r="L27" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="4">
         <v>7</v>
       </c>
@@ -1256,8 +1280,8 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
@@ -1279,8 +1303,8 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
@@ -1302,7 +1326,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="7">
+      <c r="L30" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M30" s="4"/>
@@ -1329,7 +1353,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="7">
+      <c r="L31" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M31" s="4"/>
@@ -1356,7 +1380,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="7">
+      <c r="L32" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M32" s="4"/>
@@ -1383,7 +1407,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="7">
+      <c r="L33" s="8">
         <v>0.45833333333333331</v>
       </c>
       <c r="M33" s="4"/>
@@ -1410,8 +1434,8 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
@@ -1433,10 +1457,10 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="9">
+      <c r="L35" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M35" s="10"/>
+      <c r="M35" s="6"/>
       <c r="N35" s="4">
         <v>5</v>
       </c>
@@ -1460,8 +1484,8 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
@@ -1483,7 +1507,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="7">
+      <c r="L37" s="8">
         <v>0.70833333333333337</v>
       </c>
       <c r="M37" s="4"/>
@@ -1492,8 +1516,230 @@
       </c>
       <c r="O37" s="4"/>
     </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B38" s="4">
+        <v>35</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" s="4">
+        <v>5</v>
+      </c>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="156">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:K35"/>
     <mergeCell ref="L35:M35"/>
@@ -1506,135 +1752,8 @@
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -113,9 +113,6 @@
     <t xml:space="preserve">Actualizar Presentación y Modificar gráficas Introducción </t>
   </si>
   <si>
-    <t>Modificar Base de datos en 000webhost del web servive</t>
-  </si>
-  <si>
     <t>Investigación y obtención de datos para la fundamentacion de la App</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Modificacion de Referencias e imágenes, tablas y gráficas</t>
+  </si>
+  <si>
+    <t>Modificar Base de datos en 000webhost del web service</t>
   </si>
 </sst>
 </file>
@@ -299,22 +299,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
@@ -323,13 +323,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -619,7 +619,7 @@
   <dimension ref="A3:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39:O39"/>
+      <selection activeCell="D30" sqref="D30:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +677,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="8">
+      <c r="L4" s="5">
         <v>0.4375</v>
       </c>
       <c r="M4" s="4"/>
@@ -707,7 +707,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="8">
+      <c r="L5" s="5">
         <v>0.52083333333333337</v>
       </c>
       <c r="M5" s="4"/>
@@ -734,7 +734,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="8">
+      <c r="L6" s="5">
         <v>0.22916666666666666</v>
       </c>
       <c r="M6" s="4"/>
@@ -761,8 +761,8 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
@@ -784,8 +784,8 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
@@ -807,7 +807,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="8">
+      <c r="L9" s="5">
         <v>0.75</v>
       </c>
       <c r="M9" s="4"/>
@@ -834,8 +834,8 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
@@ -857,8 +857,8 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
@@ -880,8 +880,8 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
@@ -903,7 +903,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="8">
+      <c r="L13" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="M13" s="4"/>
@@ -930,8 +930,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
@@ -953,8 +953,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
@@ -976,8 +976,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
@@ -999,8 +999,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
@@ -1022,7 +1022,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="8">
+      <c r="L18" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="M18" s="4"/>
@@ -1049,7 +1049,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="8">
+      <c r="L19" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="M19" s="4"/>
@@ -1076,7 +1076,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="8">
+      <c r="L20" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="M20" s="4"/>
@@ -1103,7 +1103,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="8">
+      <c r="L21" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="M21" s="4"/>
@@ -1130,8 +1130,8 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
@@ -1153,8 +1153,8 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
@@ -1176,10 +1176,10 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="5">
+      <c r="L24" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="9"/>
       <c r="N24" s="4">
         <v>8</v>
       </c>
@@ -1203,8 +1203,8 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
@@ -1226,7 +1226,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="8">
+      <c r="L26" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="M26" s="4"/>
@@ -1253,10 +1253,10 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="9">
+      <c r="L27" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M27" s="10"/>
+      <c r="M27" s="15"/>
       <c r="N27" s="4">
         <v>7</v>
       </c>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1280,8 +1280,8 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1303,8 +1303,8 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
@@ -1326,7 +1326,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="8">
+      <c r="L30" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="M30" s="4"/>
@@ -1353,7 +1353,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="8">
+      <c r="L31" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="M31" s="4"/>
@@ -1380,7 +1380,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="8">
+      <c r="L32" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="M32" s="4"/>
@@ -1407,7 +1407,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="8">
+      <c r="L33" s="5">
         <v>0.45833333333333331</v>
       </c>
       <c r="M33" s="4"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1434,8 +1434,8 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1457,10 +1457,10 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="5">
+      <c r="L35" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M35" s="6"/>
+      <c r="M35" s="9"/>
       <c r="N35" s="4">
         <v>5</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1484,8 +1484,8 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1507,7 +1507,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="8">
+      <c r="L37" s="5">
         <v>0.70833333333333337</v>
       </c>
       <c r="M37" s="4"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1534,10 +1534,10 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="14">
+      <c r="L38" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M38" s="15"/>
+      <c r="M38" s="7"/>
       <c r="N38" s="4">
         <v>5</v>
       </c>
@@ -1555,8 +1555,8 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="6"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="9"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
@@ -1572,8 +1572,8 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
@@ -1589,13 +1589,153 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="8"/>
+      <c r="L41" s="5"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:K41"/>
     <mergeCell ref="L41:M41"/>
@@ -1612,146 +1752,6 @@
     <mergeCell ref="D40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>No. Reporte</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Modificar Base de datos en 000webhost del web service</t>
+  </si>
+  <si>
+    <t>Desarrollo de la aplicación móvil y Agregar información en Capitulo IV Desarrollo</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,28 +332,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -619,7 +622,7 @@
   <dimension ref="A3:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:K30"/>
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +680,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="5">
+      <c r="L4" s="8">
         <v>0.4375</v>
       </c>
       <c r="M4" s="4"/>
@@ -707,7 +710,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="5">
+      <c r="L5" s="8">
         <v>0.52083333333333337</v>
       </c>
       <c r="M5" s="4"/>
@@ -734,7 +737,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="5">
+      <c r="L6" s="8">
         <v>0.22916666666666666</v>
       </c>
       <c r="M6" s="4"/>
@@ -761,8 +764,8 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
@@ -784,8 +787,8 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
@@ -807,7 +810,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5">
+      <c r="L9" s="8">
         <v>0.75</v>
       </c>
       <c r="M9" s="4"/>
@@ -834,8 +837,8 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
@@ -857,8 +860,8 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
@@ -880,8 +883,8 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
@@ -903,7 +906,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="5">
+      <c r="L13" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M13" s="4"/>
@@ -930,8 +933,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
@@ -953,8 +956,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
@@ -976,8 +979,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
@@ -999,8 +1002,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
@@ -1022,7 +1025,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="5">
+      <c r="L18" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M18" s="4"/>
@@ -1049,7 +1052,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="5">
+      <c r="L19" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M19" s="4"/>
@@ -1076,7 +1079,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="5">
+      <c r="L20" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M20" s="4"/>
@@ -1103,7 +1106,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="5">
+      <c r="L21" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M21" s="4"/>
@@ -1130,8 +1133,8 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
@@ -1153,8 +1156,8 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
@@ -1176,10 +1179,10 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="8">
+      <c r="L24" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M24" s="9"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="4">
         <v>8</v>
       </c>
@@ -1203,8 +1206,8 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
@@ -1226,7 +1229,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="5">
+      <c r="L26" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M26" s="4"/>
@@ -1253,10 +1256,10 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="14">
+      <c r="L27" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M27" s="15"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="4">
         <v>7</v>
       </c>
@@ -1280,8 +1283,8 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
@@ -1303,8 +1306,8 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
@@ -1326,7 +1329,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="5">
+      <c r="L30" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M30" s="4"/>
@@ -1353,7 +1356,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="5">
+      <c r="L31" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M31" s="4"/>
@@ -1380,7 +1383,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="5">
+      <c r="L32" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="M32" s="4"/>
@@ -1407,7 +1410,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="5">
+      <c r="L33" s="8">
         <v>0.45833333333333331</v>
       </c>
       <c r="M33" s="4"/>
@@ -1434,8 +1437,8 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
@@ -1457,10 +1460,10 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="8">
+      <c r="L35" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M35" s="9"/>
+      <c r="M35" s="6"/>
       <c r="N35" s="4">
         <v>5</v>
       </c>
@@ -1484,8 +1487,8 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
@@ -1507,7 +1510,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="5">
+      <c r="L37" s="8">
         <v>0.70833333333333337</v>
       </c>
       <c r="M37" s="4"/>
@@ -1534,20 +1537,26 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="6">
+      <c r="L38" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M38" s="7"/>
+      <c r="M38" s="14"/>
       <c r="N38" s="4">
         <v>5</v>
       </c>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B39" s="4">
+        <v>36</v>
+      </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1555,9 +1564,13 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="4"/>
+      <c r="L39" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="4">
+        <v>5</v>
+      </c>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -1572,8 +1585,8 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
@@ -1589,153 +1602,13 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="5"/>
+      <c r="L41" s="8"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:K41"/>
     <mergeCell ref="L41:M41"/>
@@ -1752,6 +1625,146 @@
     <mergeCell ref="D40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
